--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-05_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-05_valid.xlsx
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1320</v>
+        <v>1344</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>474.251497005988</v>
+        <v>482.874251497006</v>
       </c>
       <c r="BA61">
         <v>0</v>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0.5579429376541035</v>
+        <v>0.56808735470236</v>
       </c>
       <c r="CM61">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.4757506308308448</v>
+        <v>0.4815129357528136</v>
       </c>
     </row>
     <row r="62" spans="1:105">
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>3117</v>
+        <v>3459</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="AZ69">
-        <v>861.8433179723502</v>
+        <v>956.405529953917</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="CL69">
-        <v>1.013933315261588</v>
+        <v>1.125182976416373</v>
       </c>
       <c r="CM69">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="DA69">
-        <v>0.7820534759358289</v>
+        <v>0.8369197860962567</v>
       </c>
     </row>
     <row r="70" spans="1:105">
